--- a/tables/DL.xlsx
+++ b/tables/DL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@Quarto projects/rsources-book-en/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647121EE-97F6-6E4C-B181-D3407B5B8625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597AA7B8-1411-224C-BFEB-6E8A35B34CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="24940" windowHeight="14180" xr2:uid="{DF9C2308-7DE4-724B-A077-C804DE5E9C7F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>author</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>https://deepmachinelearning.ru/docs/Neural-networks/book-title</t>
+  </si>
+  <si>
+    <t>Deep Learning Course</t>
+  </si>
+  <si>
+    <t>https://fleuret.org/dlc/</t>
   </si>
 </sst>
 </file>
@@ -492,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D566FA-41AC-1743-A66B-6F1FF1535269}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,23 +601,34 @@
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
